--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B9B47C-8E8F-4411-BA6F-653AEF15242A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E469F02E-E23E-40A1-868C-C24FB9B22568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
   <si>
     <t>Prénom</t>
   </si>
@@ -196,6 +196,246 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Necib</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>sCd6x4MAAAAJ</t>
+  </si>
+  <si>
+    <t>Physique et Astronomie</t>
+  </si>
+  <si>
+    <t>Mohamed Slim</t>
+  </si>
+  <si>
+    <t>Kammoun</t>
+  </si>
+  <si>
+    <t>Université de Lyon</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>tXcxSMQAAAAJ</t>
+  </si>
+  <si>
+    <t>Aiman</t>
+  </si>
+  <si>
+    <t>Ghrab</t>
+  </si>
+  <si>
+    <t>ZUM9JuwAAAAJ</t>
+  </si>
+  <si>
+    <t>Maher</t>
+  </si>
+  <si>
+    <t>Damak</t>
+  </si>
+  <si>
+    <t>r-f64cwAAAAJ</t>
+  </si>
+  <si>
+    <t>Chimie et Sciences des Matériaux</t>
+  </si>
+  <si>
+    <t>Houssem Eddine</t>
+  </si>
+  <si>
+    <t>Chachia</t>
+  </si>
+  <si>
+    <t>Université de Tunis</t>
+  </si>
+  <si>
+    <t>cbh0RuIAAAAJ</t>
+  </si>
+  <si>
+    <t>Arts, Humanités et Sciences Sociales</t>
+  </si>
+  <si>
+    <t>Université de Carthage</t>
+  </si>
+  <si>
+    <t>Oussama</t>
+  </si>
+  <si>
+    <t>Ben Khiroun</t>
+  </si>
+  <si>
+    <t>3aS4BBIAAAAJ</t>
+  </si>
+  <si>
+    <t>Rimel</t>
+  </si>
+  <si>
+    <t>Benmessaoud</t>
+  </si>
+  <si>
+    <t>ZryMVeUAAAAJ</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>Maalej</t>
+  </si>
+  <si>
+    <t>DhxmLocAAAAJ</t>
+  </si>
+  <si>
+    <t>Takwa</t>
+  </si>
+  <si>
+    <t>E1pAl6IAAAAJ</t>
+  </si>
+  <si>
+    <t>lElQB7sAAAAJ</t>
+  </si>
+  <si>
+    <t>Abir</t>
+  </si>
+  <si>
+    <t>Mchergui</t>
+  </si>
+  <si>
+    <t>Université de Gabès</t>
+  </si>
+  <si>
+    <t>Amdouni</t>
+  </si>
+  <si>
+    <t>South Mediterranean University</t>
+  </si>
+  <si>
+    <t>KgtSI2AAAAAJ</t>
+  </si>
+  <si>
+    <t>6R_Zrj8AAAAJ</t>
+  </si>
+  <si>
+    <t>Université de La Manouba</t>
+  </si>
+  <si>
+    <t>Haïfa</t>
+  </si>
+  <si>
+    <t>Nakouri</t>
+  </si>
+  <si>
+    <t>Ons</t>
+  </si>
+  <si>
+    <t>Abdelkhalek</t>
+  </si>
+  <si>
+    <t>k0dsKTQAAAAJ</t>
+  </si>
+  <si>
+    <t>Agnès</t>
+  </si>
+  <si>
+    <t>Ghorbel</t>
+  </si>
+  <si>
+    <t>17L-HKsAAAAJ</t>
+  </si>
+  <si>
+    <t>R7TFZqIAAAAJ</t>
+  </si>
+  <si>
+    <t>Noussaiba</t>
+  </si>
+  <si>
+    <t>Jaafar</t>
+  </si>
+  <si>
+    <t>Moncef</t>
+  </si>
+  <si>
+    <t>Ghiss</t>
+  </si>
+  <si>
+    <t>XSird1wAAAAJ</t>
+  </si>
+  <si>
+    <t>Amal</t>
+  </si>
+  <si>
+    <t>Rabti</t>
+  </si>
+  <si>
+    <t>tOl1jBoAAAAJ</t>
+  </si>
+  <si>
+    <t>Mouna</t>
+  </si>
+  <si>
+    <t>Ben Saïd</t>
+  </si>
+  <si>
+    <t>PB-V7YkAAAAJ</t>
+  </si>
+  <si>
+    <t>Zouari</t>
+  </si>
+  <si>
+    <t>yeS-euUAAAAJ</t>
+  </si>
+  <si>
+    <t>Raouf</t>
+  </si>
+  <si>
+    <t>Ghram</t>
+  </si>
+  <si>
+    <t>gudk6nwAAAAJ</t>
+  </si>
+  <si>
+    <t>Rania</t>
+  </si>
+  <si>
+    <t>Mzid</t>
+  </si>
+  <si>
+    <t>65QMwLIAAAAJ</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Trigui</t>
+  </si>
+  <si>
+    <t>tAXcF0wAAAAJ</t>
+  </si>
+  <si>
+    <t>Mohamed Bechir</t>
+  </si>
+  <si>
+    <t>Dadi</t>
+  </si>
+  <si>
+    <t>FdYohigAAAAJ</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>Ghammam</t>
+  </si>
+  <si>
+    <t>p5OibzsAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -556,16 +796,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -880,6 +1122,630 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>1990</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>1992</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>1994</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>1992</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>1984</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>1985</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>1983</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>1986</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>1986</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22">
+        <v>1986</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <v>1987</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>1984</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25">
+        <v>1984</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>1987</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>1988</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28">
+        <v>1984</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29">
+        <v>1988</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>1985</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>1988</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>1983</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33">
+        <v>1985</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34">
+        <v>1983</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35">
+        <v>1983</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>1983</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E469F02E-E23E-40A1-868C-C24FB9B22568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B301A4-DC8F-4604-BA0D-F9FDD5781ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
   <si>
     <t>Prénom</t>
   </si>
@@ -436,6 +436,33 @@
   </si>
   <si>
     <t>p5OibzsAAAAJ</t>
+  </si>
+  <si>
+    <t>Alif</t>
+  </si>
+  <si>
+    <t>Chebbi</t>
+  </si>
+  <si>
+    <t>Università degli Studi Roma Tre</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>NOui2AMAAAAJ</t>
+  </si>
+  <si>
+    <t>Università degli Studi di Trento</t>
+  </si>
+  <si>
+    <t>tlJf9NIAAAAJ</t>
+  </si>
+  <si>
+    <t>Sihem</t>
+  </si>
+  <si>
+    <t>Dabbou</t>
   </si>
 </sst>
 </file>
@@ -796,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,6 +1773,58 @@
         <v>21</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37">
+        <v>1987</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>1984</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B301A4-DC8F-4604-BA0D-F9FDD5781ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B28BA4-4CC9-4188-85F5-5D70F735E723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
   <si>
     <t>Prénom</t>
   </si>
@@ -463,6 +463,33 @@
   </si>
   <si>
     <t>Dabbou</t>
+  </si>
+  <si>
+    <t>Skander</t>
+  </si>
+  <si>
+    <t>Hathroubi</t>
+  </si>
+  <si>
+    <t>Université de Strasbourg</t>
+  </si>
+  <si>
+    <t>hMHGOioAAAAJ</t>
+  </si>
+  <si>
+    <t>Omayma</t>
+  </si>
+  <si>
+    <t>Missawi</t>
+  </si>
+  <si>
+    <t>Université de Namur</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>qMrkBQsAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -823,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,6 +1852,58 @@
         <v>21</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39">
+        <v>1985</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40">
+        <v>1992</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B28BA4-4CC9-4188-85F5-5D70F735E723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AC1138-C84F-4C1C-B62E-3FEDAF7384B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
   <si>
     <t>Prénom</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>qMrkBQsAAAAJ</t>
+  </si>
+  <si>
+    <t>8xS0mh8AAAAJ</t>
+  </si>
+  <si>
+    <t>Hanen</t>
+  </si>
+  <si>
+    <t>Boukedi</t>
   </si>
 </sst>
 </file>
@@ -850,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,6 +1913,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41">
+        <v>1983</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AC1138-C84F-4C1C-B62E-3FEDAF7384B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8135379-5947-4E32-94CE-ADEBBC9B6AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="163">
   <si>
     <t>Prénom</t>
   </si>
@@ -499,6 +499,21 @@
   </si>
   <si>
     <t>Boukedi</t>
+  </si>
+  <si>
+    <t>Jawhar</t>
+  </si>
+  <si>
+    <t>Hafsa</t>
+  </si>
+  <si>
+    <t>ww5A_WMAAAAJ</t>
+  </si>
+  <si>
+    <t>Mohammed VI Polytechnic University</t>
+  </si>
+  <si>
+    <t>Morocco</t>
   </si>
 </sst>
 </file>
@@ -859,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1939,6 +1954,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>1987</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8135379-5947-4E32-94CE-ADEBBC9B6AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF6C26F-539D-472F-A3FD-3FDB7B5B9AC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="173">
   <si>
     <t>Prénom</t>
   </si>
@@ -513,7 +513,37 @@
     <t>Mohammed VI Polytechnic University</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>Kamel</t>
+  </si>
+  <si>
+    <t>Mhalhel</t>
+  </si>
+  <si>
+    <t>Università degli studi di Messina</t>
+  </si>
+  <si>
+    <t>R35oeVAAAAAJ</t>
+  </si>
+  <si>
+    <t>Akram</t>
+  </si>
+  <si>
+    <t>Zribi</t>
+  </si>
+  <si>
+    <t>FAZ-BeAAAAAJ</t>
+  </si>
+  <si>
+    <t>Sondes</t>
+  </si>
+  <si>
+    <t>Mechri</t>
+  </si>
+  <si>
+    <t>RN8eVNQAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -874,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1980,6 +2010,84 @@
         <v>21</v>
       </c>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <v>1992</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44">
+        <v>1985</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45">
+        <v>1991</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF6C26F-539D-472F-A3FD-3FDB7B5B9AC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67105A30-283F-4B73-A576-F2E3443BB495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="178">
   <si>
     <t>Prénom</t>
   </si>
@@ -544,6 +544,21 @@
   </si>
   <si>
     <t>RN8eVNQAAAAJ</t>
+  </si>
+  <si>
+    <t>Marouane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemek </t>
+  </si>
+  <si>
+    <t>South Ural State University</t>
+  </si>
+  <si>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>imC8he8AAAAJ</t>
   </si>
 </sst>
 </file>
@@ -904,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,6 +2103,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46">
+        <v>1988</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67105A30-283F-4B73-A576-F2E3443BB495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF5355-CE6E-4332-9BCD-E2F5FB44B9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="185">
   <si>
     <t>Prénom</t>
   </si>
@@ -559,6 +559,27 @@
   </si>
   <si>
     <t>imC8he8AAAAJ</t>
+  </si>
+  <si>
+    <t>Rami</t>
+  </si>
+  <si>
+    <t>Rahmani</t>
+  </si>
+  <si>
+    <t>0kq7_rIAAAAJ</t>
+  </si>
+  <si>
+    <t>Oumaima</t>
+  </si>
+  <si>
+    <t>Ammar</t>
+  </si>
+  <si>
+    <t>Università di Firenze</t>
+  </si>
+  <si>
+    <t>l3mebFYAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -919,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,6 +2150,58 @@
         <v>21</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <v>1990</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48">
+        <v>1991</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF5355-CE6E-4332-9BCD-E2F5FB44B9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D918CB2-5F27-4761-993D-C40236C6AD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21744" windowHeight="7272" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13704" windowHeight="7848" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="243">
   <si>
     <t>Prénom</t>
   </si>
@@ -580,6 +580,180 @@
   </si>
   <si>
     <t>l3mebFYAAAAJ</t>
+  </si>
+  <si>
+    <t>Achraf</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Mada Center</t>
+  </si>
+  <si>
+    <t>TRCtFdMAAAAJ</t>
+  </si>
+  <si>
+    <t>Afef</t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>XKJ-HTQAAAAJ</t>
+  </si>
+  <si>
+    <t>Sciences économiques, Finance et Gestion</t>
+  </si>
+  <si>
+    <t>Ben Cheikh</t>
+  </si>
+  <si>
+    <t>Avicenne Private Business School</t>
+  </si>
+  <si>
+    <t>uGv8N1kAAAAJ</t>
+  </si>
+  <si>
+    <t>Bochra</t>
+  </si>
+  <si>
+    <t>Rabbouch</t>
+  </si>
+  <si>
+    <t>rxq9X58AAAAJ</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>yW86SmIAAAAJ</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Amara</t>
+  </si>
+  <si>
+    <t>King Faisal University</t>
+  </si>
+  <si>
+    <t>Arabie Saoudite</t>
+  </si>
+  <si>
+    <t>ifRBvikAAAAJ</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Ghommem</t>
+  </si>
+  <si>
+    <t>American University of Sharjah</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Cokg8GAAAAAJ</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Ktata</t>
+  </si>
+  <si>
+    <t>0V9BV_sAAAAJ</t>
+  </si>
+  <si>
+    <t>Intissar</t>
+  </si>
+  <si>
+    <t>Moussa</t>
+  </si>
+  <si>
+    <t>LTv022EAAAAJ</t>
+  </si>
+  <si>
+    <t>Mohamed A.</t>
+  </si>
+  <si>
+    <t>Bahloul</t>
+  </si>
+  <si>
+    <t>Alfaisal University</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>GTIvdXUAAAAJ</t>
+  </si>
+  <si>
+    <t>Azza</t>
+  </si>
+  <si>
+    <t>Mensi</t>
+  </si>
+  <si>
+    <t>Canadian Institutes of Health Research</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>nKvcr2gAAAAJ</t>
+  </si>
+  <si>
+    <t>Imed</t>
+  </si>
+  <si>
+    <t>Madhi</t>
+  </si>
+  <si>
+    <t>XVUtQ74AAAAJ</t>
+  </si>
+  <si>
+    <t>Université Centrale</t>
+  </si>
+  <si>
+    <t>Fahmi</t>
+  </si>
+  <si>
+    <t>Alila</t>
+  </si>
+  <si>
+    <t>Université de Nantes</t>
+  </si>
+  <si>
+    <t>1v1t5G4AAAAJ</t>
+  </si>
+  <si>
+    <t>Nammouchi</t>
+  </si>
+  <si>
+    <t>Karlstad University</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>CALEjIEAAAAJ</t>
+  </si>
+  <si>
+    <t>Sabrine</t>
+  </si>
+  <si>
+    <t>Ziri</t>
+  </si>
+  <si>
+    <t>Institut supérieur de l'aéronautique et de l'espace</t>
+  </si>
+  <si>
+    <t>sdhIDjYAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -940,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2202,6 +2376,396 @@
         <v>21</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49">
+        <v>1985</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50">
+        <v>1986</v>
+      </c>
+      <c r="H50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <v>1989</v>
+      </c>
+      <c r="H51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52">
+        <v>1987</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53">
+        <v>1988</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54">
+        <v>1986</v>
+      </c>
+      <c r="H54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55">
+        <v>1983</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>1983</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>1988</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>1991</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>1985</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60">
+        <v>1983</v>
+      </c>
+      <c r="H60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61">
+        <v>1990</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62">
+        <v>1996</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>1992</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D918CB2-5F27-4761-993D-C40236C6AD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2110C20-C259-4AB9-B92C-CE451D2119A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13704" windowHeight="7848" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
   <si>
     <t>Prénom</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Asma</t>
   </si>
   <si>
-    <t>Ben Abacha</t>
-  </si>
-  <si>
     <t>Leila</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Université de Sfax</t>
   </si>
   <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
     <t>Pays</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>u25grGjf85sC</t>
   </si>
   <si>
-    <t>KO6_r0cAAAAJ</t>
-  </si>
-  <si>
     <t>VaC47ngAAAAJ</t>
   </si>
   <si>
@@ -276,15 +267,6 @@
     <t>3aS4BBIAAAAJ</t>
   </si>
   <si>
-    <t>Rimel</t>
-  </si>
-  <si>
-    <t>Benmessaoud</t>
-  </si>
-  <si>
-    <t>ZryMVeUAAAAJ</t>
-  </si>
-  <si>
     <t>Amina</t>
   </si>
   <si>
@@ -393,15 +375,6 @@
     <t>yeS-euUAAAAJ</t>
   </si>
   <si>
-    <t>Raouf</t>
-  </si>
-  <si>
-    <t>Ghram</t>
-  </si>
-  <si>
-    <t>gudk6nwAAAAJ</t>
-  </si>
-  <si>
     <t>Rania</t>
   </si>
   <si>
@@ -411,33 +384,6 @@
     <t>65QMwLIAAAAJ</t>
   </si>
   <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Trigui</t>
-  </si>
-  <si>
-    <t>tAXcF0wAAAAJ</t>
-  </si>
-  <si>
-    <t>Mohamed Bechir</t>
-  </si>
-  <si>
-    <t>Dadi</t>
-  </si>
-  <si>
-    <t>FdYohigAAAAJ</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Ghammam</t>
-  </si>
-  <si>
-    <t>p5OibzsAAAAJ</t>
-  </si>
-  <si>
     <t>Alif</t>
   </si>
   <si>
@@ -492,15 +438,6 @@
     <t>qMrkBQsAAAAJ</t>
   </si>
   <si>
-    <t>8xS0mh8AAAAJ</t>
-  </si>
-  <si>
-    <t>Hanen</t>
-  </si>
-  <si>
-    <t>Boukedi</t>
-  </si>
-  <si>
     <t>Jawhar</t>
   </si>
   <si>
@@ -645,30 +582,6 @@
     <t>ifRBvikAAAAJ</t>
   </si>
   <si>
-    <t>Mehdi</t>
-  </si>
-  <si>
-    <t>Ghommem</t>
-  </si>
-  <si>
-    <t>American University of Sharjah</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>Cokg8GAAAAAJ</t>
-  </si>
-  <si>
-    <t>Ismail</t>
-  </si>
-  <si>
-    <t>Ktata</t>
-  </si>
-  <si>
-    <t>0V9BV_sAAAAJ</t>
-  </si>
-  <si>
     <t>Intissar</t>
   </si>
   <si>
@@ -706,18 +619,6 @@
   </si>
   <si>
     <t>nKvcr2gAAAAJ</t>
-  </si>
-  <si>
-    <t>Imed</t>
-  </si>
-  <si>
-    <t>Madhi</t>
-  </si>
-  <si>
-    <t>XVUtQ74AAAAJ</t>
-  </si>
-  <si>
-    <t>Université Centrale</t>
   </si>
   <si>
     <t>Fahmi</t>
@@ -1114,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,22 +1037,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1162,178 +1063,178 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>1994</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>1988</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>1994</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>1988</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G7">
         <v>1985</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1344,152 +1245,152 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G12">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G14">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,74 +1401,74 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G16">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1578,22 +1479,22 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1601,25 +1502,25 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1630,152 +1531,152 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>1986</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G22">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1786,48 +1687,48 @@
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>107</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G26">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
         <v>110</v>
       </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27">
         <v>1988</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1838,932 +1739,672 @@
         <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29">
         <v>1988</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G30">
         <v>1985</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
         <v>122</v>
       </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>1985</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G34">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G35">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G36">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G37">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G38">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G39">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G40">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G41">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G42">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G43">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G44">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G45">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G46">
         <v>1988</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G47">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G48">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G49">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G50">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H50" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G51">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="H51" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G52">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G53">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54">
-        <v>1986</v>
-      </c>
-      <c r="H54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" t="s">
-        <v>209</v>
-      </c>
-      <c r="E55" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55">
-        <v>1983</v>
-      </c>
-      <c r="H55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56">
-        <v>1983</v>
-      </c>
-      <c r="H56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" t="s">
-        <v>215</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57">
-        <v>1988</v>
-      </c>
-      <c r="H57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58">
-        <v>1991</v>
-      </c>
-      <c r="H58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G59">
-        <v>1985</v>
-      </c>
-      <c r="H59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60">
-        <v>1983</v>
-      </c>
-      <c r="H60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" t="s">
-        <v>234</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61">
-        <v>1990</v>
-      </c>
-      <c r="H61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" t="s">
-        <v>237</v>
-      </c>
-      <c r="E62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62">
-        <v>1996</v>
-      </c>
-      <c r="H62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" t="s">
-        <v>242</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63">
-        <v>1992</v>
-      </c>
-      <c r="H63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2110C20-C259-4AB9-B92C-CE451D2119A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193EB208-3907-411A-A197-743D8D9C7A53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
   <si>
     <t>Prénom</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Ben Cheikh</t>
   </si>
   <si>
-    <t>Avicenne Private Business School</t>
-  </si>
-  <si>
     <t>uGv8N1kAAAAJ</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
     <t>Alfaisal University</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>GTIvdXUAAAAJ</t>
   </si>
   <si>
@@ -639,9 +633,6 @@
     <t>Karlstad University</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>CALEjIEAAAAJ</t>
   </si>
   <si>
@@ -655,6 +646,24 @@
   </si>
   <si>
     <t>sdhIDjYAAAAJ</t>
+  </si>
+  <si>
+    <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>Aarhus University</t>
+  </si>
+  <si>
+    <t>Danemark</t>
+  </si>
+  <si>
+    <t>9cdCQAoAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,19 +2164,19 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
         <v>173</v>
       </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
-        <v>174</v>
-      </c>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G44">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="H44" t="s">
         <v>171</v>
@@ -2175,10 +2184,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
         <v>175</v>
-      </c>
-      <c r="B45" t="s">
-        <v>176</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
@@ -2187,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>53</v>
@@ -2201,10 +2210,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -2213,7 +2222,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>53</v>
@@ -2227,19 +2236,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
         <v>180</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>181</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>182</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>183</v>
-      </c>
-      <c r="E47" t="s">
-        <v>184</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
@@ -2253,10 +2262,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" t="s">
         <v>185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>186</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -2265,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>53</v>
@@ -2279,19 +2288,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>189</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" t="s">
         <v>190</v>
-      </c>
-      <c r="D49" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" t="s">
-        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>52</v>
@@ -2305,19 +2314,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
         <v>193</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>194</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>195</v>
-      </c>
-      <c r="D50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" t="s">
-        <v>197</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>53</v>
@@ -2331,19 +2340,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
         <v>198</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" t="s">
-        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>52</v>
@@ -2360,16 +2369,16 @@
         <v>108</v>
       </c>
       <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
         <v>202</v>
-      </c>
-      <c r="C52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" t="s">
-        <v>205</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>53</v>
@@ -2383,19 +2392,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>53</v>
@@ -2404,6 +2413,32 @@
         <v>1992</v>
       </c>
       <c r="H53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <v>1988</v>
+      </c>
+      <c r="H54" t="s">
         <v>70</v>
       </c>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193EB208-3907-411A-A197-743D8D9C7A53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E5749-F36C-4E7B-B8A3-518EE58E3165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="217">
   <si>
     <t>Prénom</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>9cdCQAoAAAAJ</t>
+  </si>
+  <si>
+    <t>Mohamed Raâfet</t>
+  </si>
+  <si>
+    <t>Ben Khedher</t>
+  </si>
+  <si>
+    <t>Université Laval</t>
+  </si>
+  <si>
+    <t>fd-CnyYAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="A55" sqref="A55:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2442,6 +2454,32 @@
         <v>70</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <v>1987</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E5749-F36C-4E7B-B8A3-518EE58E3165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56A709-746E-4B4F-BD45-3D051CF05181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="223">
   <si>
     <t>Prénom</t>
   </si>
@@ -570,9 +570,6 @@
     <t>Amara</t>
   </si>
   <si>
-    <t>King Faisal University</t>
-  </si>
-  <si>
     <t>Arabie Saoudite</t>
   </si>
   <si>
@@ -676,6 +673,27 @@
   </si>
   <si>
     <t>fd-CnyYAAAAJ</t>
+  </si>
+  <si>
+    <t>Smiti</t>
+  </si>
+  <si>
+    <t>zbDwB7MAAAAJ</t>
+  </si>
+  <si>
+    <t>Latifa</t>
+  </si>
+  <si>
+    <t>Remadi</t>
+  </si>
+  <si>
+    <t>Foundation for Research and Technology - Hellas</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>c3jenkwAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1036,16 +1054,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
@@ -2176,7 +2194,7 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2254,19 +2272,19 @@
         <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
         <v>182</v>
       </c>
-      <c r="E47" t="s">
-        <v>183</v>
-      </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G47">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H47" t="s">
         <v>171</v>
@@ -2274,10 +2292,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
         <v>184</v>
-      </c>
-      <c r="B48" t="s">
-        <v>185</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -2286,7 +2304,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>53</v>
@@ -2300,19 +2318,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" t="s">
         <v>187</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>188</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" t="s">
         <v>189</v>
-      </c>
-      <c r="D49" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" t="s">
-        <v>190</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>52</v>
@@ -2326,19 +2344,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
         <v>191</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>192</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>193</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>194</v>
-      </c>
-      <c r="E50" t="s">
-        <v>195</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>53</v>
@@ -2352,19 +2370,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
         <v>196</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>197</v>
-      </c>
-      <c r="C51" t="s">
-        <v>198</v>
       </c>
       <c r="D51" t="s">
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>52</v>
@@ -2381,16 +2399,16 @@
         <v>108</v>
       </c>
       <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s">
         <v>200</v>
-      </c>
-      <c r="C52" t="s">
-        <v>201</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>53</v>
@@ -2404,19 +2422,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
         <v>203</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>204</v>
-      </c>
-      <c r="C53" t="s">
-        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>53</v>
@@ -2430,19 +2448,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
         <v>208</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>209</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>210</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>211</v>
-      </c>
-      <c r="E54" t="s">
-        <v>212</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>52</v>
@@ -2456,19 +2474,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
         <v>213</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>214</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
         <v>215</v>
-      </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" t="s">
-        <v>216</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>52</v>
@@ -2477,6 +2495,58 @@
         <v>1987</v>
       </c>
       <c r="H55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <v>1985</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57">
+        <v>1987</v>
+      </c>
+      <c r="H57" t="s">
         <v>19</v>
       </c>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56A709-746E-4B4F-BD45-3D051CF05181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C10C5A-D093-44A8-A511-D2AE4879F9BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
   <si>
     <t>Prénom</t>
   </si>
@@ -669,9 +669,6 @@
     <t>Ben Khedher</t>
   </si>
   <si>
-    <t>Université Laval</t>
-  </si>
-  <si>
     <t>fd-CnyYAAAAJ</t>
   </si>
   <si>
@@ -687,13 +684,61 @@
     <t>Remadi</t>
   </si>
   <si>
-    <t>Foundation for Research and Technology - Hellas</t>
-  </si>
-  <si>
-    <t>Grèce</t>
-  </si>
-  <si>
     <t>c3jenkwAAAAJ</t>
+  </si>
+  <si>
+    <t>Ikbel</t>
+  </si>
+  <si>
+    <t>Hadj Hassine</t>
+  </si>
+  <si>
+    <t>iGnXpRMAAAAJ</t>
+  </si>
+  <si>
+    <t>Raouia</t>
+  </si>
+  <si>
+    <t>Mokni</t>
+  </si>
+  <si>
+    <t>j_a72EQAAAAJ</t>
+  </si>
+  <si>
+    <t>Nesrine</t>
+  </si>
+  <si>
+    <t>Zitouni</t>
+  </si>
+  <si>
+    <t>Université de Caen Normandie</t>
+  </si>
+  <si>
+    <t>kBOIwKQAAAAJ</t>
+  </si>
+  <si>
+    <t>Université de Jendouba</t>
+  </si>
+  <si>
+    <t>Hajer</t>
+  </si>
+  <si>
+    <t>Bougatef</t>
+  </si>
+  <si>
+    <t>ocEvNeAAAAAJ</t>
+  </si>
+  <si>
+    <t>Melek</t>
+  </si>
+  <si>
+    <t>Hajji</t>
+  </si>
+  <si>
+    <t>Université de Kairouan</t>
+  </si>
+  <si>
+    <t>DJHqHkgAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,13 +2525,13 @@
         <v>213</v>
       </c>
       <c r="C55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
         <v>214</v>
-      </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" t="s">
-        <v>215</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>52</v>
@@ -2503,7 +2548,7 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
@@ -2512,7 +2557,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>53</v>
@@ -2526,19 +2571,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
         <v>218</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
         <v>219</v>
-      </c>
-      <c r="C57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" t="s">
-        <v>222</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>53</v>
@@ -2548,6 +2593,136 @@
       </c>
       <c r="H57" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58">
+        <v>1990</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59">
+        <v>1986</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60">
+        <v>1991</v>
+      </c>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61">
+        <v>1993</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62">
+        <v>1989</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C10C5A-D093-44A8-A511-D2AE4879F9BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7FBCD2-8033-4255-B01B-8DF9CBDE267E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="250">
   <si>
     <t>Prénom</t>
   </si>
@@ -739,6 +739,42 @@
   </si>
   <si>
     <t>DJHqHkgAAAAJ</t>
+  </si>
+  <si>
+    <t>Merhbene</t>
+  </si>
+  <si>
+    <t>Ghofrane</t>
+  </si>
+  <si>
+    <t>Bern University of Applied Sciences</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>I5KRVLMAAAAJ</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>Chaabani</t>
+  </si>
+  <si>
+    <t>eickZDMAAAAJ</t>
+  </si>
+  <si>
+    <t>Dorra</t>
+  </si>
+  <si>
+    <t>Hadj Mahmoud</t>
+  </si>
+  <si>
+    <t>Université d'Angers</t>
+  </si>
+  <si>
+    <t>20soGN4AAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2725,6 +2761,84 @@
         <v>70</v>
       </c>
     </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63">
+        <v>1999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <v>1994</v>
+      </c>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65">
+        <v>1990</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7FBCD2-8033-4255-B01B-8DF9CBDE267E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342A7F5-D183-42E5-87BC-643729519C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="260">
   <si>
     <t>Prénom</t>
   </si>
@@ -775,6 +775,36 @@
   </si>
   <si>
     <t>20soGN4AAAAJ</t>
+  </si>
+  <si>
+    <t>Dorsaf</t>
+  </si>
+  <si>
+    <t>Sallami</t>
+  </si>
+  <si>
+    <t>Université de Montréal</t>
+  </si>
+  <si>
+    <t>wUa3IWgAAAAJ</t>
+  </si>
+  <si>
+    <t>Ilef</t>
+  </si>
+  <si>
+    <t>Romdhani</t>
+  </si>
+  <si>
+    <t>_ynJvKAAAAAJ</t>
+  </si>
+  <si>
+    <t>Ilyes</t>
+  </si>
+  <si>
+    <t>Rezgui</t>
+  </si>
+  <si>
+    <t>2RI_ZRkAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,6 +2869,84 @@
         <v>19</v>
       </c>
     </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66">
+        <v>1996</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67">
+        <v>1998</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68">
+        <v>2001</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342A7F5-D183-42E5-87BC-643729519C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FD4C7-BF55-4621-BD2F-98C79904950E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7572" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
   <si>
     <t>Prénom</t>
   </si>
@@ -805,6 +805,15 @@
   </si>
   <si>
     <t>2RI_ZRkAAAAJ</t>
+  </si>
+  <si>
+    <t>Emna</t>
+  </si>
+  <si>
+    <t>Boughariou</t>
+  </si>
+  <si>
+    <t>wdvUCRwAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,6 +2956,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69">
+        <v>1992</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FD4C7-BF55-4621-BD2F-98C79904950E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED99720-6F51-4BC9-9FAC-4244B6C548EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7572" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="264">
   <si>
     <t>Prénom</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>wdvUCRwAAAAJ</t>
+  </si>
+  <si>
+    <t>Università Degli Studi di Messina</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2982,6 +2985,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70">
+        <v>1992</v>
+      </c>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED99720-6F51-4BC9-9FAC-4244B6C548EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E040FBC-1E4F-4D97-9693-C6C55B8EEB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7572" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
   <si>
     <t>Prénom</t>
   </si>
@@ -814,9 +814,6 @@
   </si>
   <si>
     <t>wdvUCRwAAAAJ</t>
-  </si>
-  <si>
-    <t>Università Degli Studi di Messina</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2985,32 +2982,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G70">
-        <v>1992</v>
-      </c>
-      <c r="H70" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E040FBC-1E4F-4D97-9693-C6C55B8EEB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BAF64D-C564-46EF-A0BB-D804DFF6D5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7572" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="7572" xr2:uid="{D1E8D344-AC73-4F08-A79B-F6A5E7FA6BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="264">
   <si>
     <t>Prénom</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>wdvUCRwAAAAJ</t>
+  </si>
+  <si>
+    <t>Centre de Biotechnologie de Sfax</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786EF92A-AF2D-4731-B27D-F54E161F9EBC}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,7 +2161,7 @@
         <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
